--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Amsterdam Albatross_Amsterdam and St Paul.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Amsterdam Albatross_Amsterdam and St Paul.xlsx
@@ -6852,13 +6852,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81AD1529-B5B8-4426-A6DB-F723248BEAAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF85BF50-B768-4DD3-906B-1D817C475673}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D8AFE4-8D21-47E3-992E-35DAB288445B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD87F76-83A7-4EC4-AF2F-EB118C01B600}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F015611B-CE16-4855-BCF4-AA38BC2A5AF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69A06E5-B077-47C7-AFD7-8899F07CB711}"/>
 </file>